--- a/months/jan23/jan23.xlsx
+++ b/months/jan23/jan23.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="182">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -48,12 +48,6 @@
     <t xml:space="preserve">DIF_DUTY</t>
   </si>
   <si>
-    <t xml:space="preserve">L.DEFICIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.DEFICIT</t>
-  </si>
-  <si>
     <t xml:space="preserve">a:bottle</t>
   </si>
   <si>
@@ -144,6 +138,9 @@
     <t xml:space="preserve">22,00</t>
   </si>
   <si>
+    <t xml:space="preserve">C+</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,50</t>
   </si>
   <si>
@@ -171,373 +168,400 @@
     <t xml:space="preserve">23,50</t>
   </si>
   <si>
+    <t xml:space="preserve">21,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00,55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dutyTrue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;.22: 3*, &lt;.23: 2*, &gt;.23: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{1: 50, 2: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+: {CDIF 50 P 25}, -: {CDIF 0 P -25}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;.23: 1*, &gt;.23: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;.23: 3*, &gt;.23: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dutyFalse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;.22: 2*, &lt;2.3: 1*, &gt;2.3: 0*}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+: {CDIF 100 P 50}, -: {CDIFP 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;.23: 1*, &gt;.23: 0, &gt;.0: -1*}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{1: 1, 2: 1.25, 3: 1.5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long_box100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long_box50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fine50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fine100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРЕДЕЛАЙ ЧЕРЕЗ ДРУГОЙ ЕХСЕЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">итог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;22: 3*, &lt;23: 2*, &gt;23: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;22: 2*, &lt;23: 1*, &gt;23: 0*}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&gt;22: 3*, 22-23: 2*, &gt;23: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&gt;22: 2*, 22-23: 1*, &gt;23: -1*}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{1: 1,  2: 1,25, 3: 1,5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.DEFICIT{CDIF: 50, P: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.DEFICIT{CDIF: 0, P: -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;23: 1*, &gt;23: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;23: 1*, &gt;23: 0, &gt;0: -1*}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L.DEFICIT{CDIF: 100, P: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L.DEFICIT{CDIF: 0, P: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L.DEFICIT{CDIF: 50, P: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L.DEFICIT{CDIF: 0, P: -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;23: 3*, &gt;23: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проблемы со временем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty24</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
+    <t xml:space="preserve">не выспался из-за детей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не выспался на дежурстве</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бессонница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не выспался по сем. делам</t>
+  </si>
+  <si>
     <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00,55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00,40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01,15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dutyTrue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;.22: 3*, &lt;.23: 2*, &gt;.23: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1: 50, 2: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.DEFICIT{CDIF: 50, P: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;.23: 1*, &gt;.23: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L.DEFICIT{CDIF: 100, P: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;.23: 3*, &gt;.23: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dutyFalse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.DEFICIT{CDIF: 0, P: -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L.DEFICIT{CDIF: 0, P: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;.22: 2*, &lt;2.3: 1*, &gt;2.3: 0*}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;.23: 1*, &gt;.23: 0, &gt;.0: -1*}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L.DEFICIT{CDIF: 50, P: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L.DEFICIT{CDIF: 0, P: -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1: 1,  2: 1.25, 3: 1.5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1: 1, 2: 1.25, 3: 1.5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEAK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEAK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KGD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long_box100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long_box50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fine50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fine100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРЕДЕЛАЙ ЧЕРЕЗ ДРУГОЙ ЕХСЕЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">итог</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;22: 3*, &lt;23: 2*, &gt;23: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;22: 2*, &lt;23: 1*, &gt;23: 0*}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&gt;22: 3*, 22-23: 2*, &gt;23: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&gt;22: 2*, 22-23: 1*, &gt;23: -1*}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1: 1,  2: 1,25, 3: 1,5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;23: 1*, &gt;23: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;23: 1*, &gt;23: 0, &gt;0: -1*}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;23: 3*, &gt;23: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">проблемы со временем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не выспался из-за детей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не выспался на дежурстве</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бессонница</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не выспался по сем. делам</t>
   </si>
   <si>
     <t xml:space="preserve">не выспался, развлекался</t>
@@ -563,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -585,6 +609,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -694,7 +725,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -735,6 +766,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -755,7 +790,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -763,7 +798,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -799,7 +834,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
+          <fgColor rgb="FF000000"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
@@ -877,13 +912,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.43"/>
@@ -891,30 +926,28 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="3" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="7.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -936,22 +969,22 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -960,7 +993,7 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -972,7 +1005,7 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -987,13 +1020,13 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -1005,15 +1038,9 @@
       <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>44927</v>
       </c>
@@ -1023,67 +1050,65 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="2"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>44928</v>
       </c>
@@ -1093,63 +1118,61 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>44929</v>
       </c>
@@ -1159,61 +1182,59 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>31</v>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="4"/>
+      <c r="R4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="V4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>44930</v>
       </c>
@@ -1224,69 +1245,67 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="T5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="2" t="s">
+      <c r="V5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="2" t="s">
+      <c r="Y5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AB5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>44931</v>
       </c>
@@ -1296,67 +1315,63 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>31</v>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="O6" s="4"/>
       <c r="P6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
       <c r="U6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>54</v>
+      <c r="W6" s="2"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE6" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>44932</v>
       </c>
@@ -1366,65 +1381,61 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>52</v>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>44933</v>
       </c>
@@ -1435,71 +1446,67 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="W8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>44934</v>
       </c>
@@ -1509,58 +1516,54 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>44935</v>
       </c>
@@ -1570,56 +1573,54 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="P10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>44936</v>
       </c>
@@ -1631,64 +1632,62 @@
         <v>64</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="P11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>44937</v>
       </c>
@@ -1701,66 +1700,64 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB12" s="2" t="s">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AD12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB12" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>44938</v>
       </c>
@@ -1772,65 +1769,61 @@
         <v>64</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>66</v>
+      <c r="J13" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="2"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="U13" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AC13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>44939</v>
       </c>
@@ -1843,64 +1836,62 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="T14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="V14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z14" s="4"/>
-      <c r="AB14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" s="4"/>
+      <c r="Z14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AD14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>44940</v>
       </c>
@@ -1912,59 +1903,57 @@
         <v>64</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="G15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="K15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="L15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="Q15" s="4"/>
       <c r="R15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="V15" s="2"/>
-      <c r="W15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD15" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W15" s="2"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>44941</v>
       </c>
@@ -1974,55 +1963,53 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="4"/>
       <c r="P16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U16" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AD16" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>44942</v>
       </c>
@@ -2035,65 +2022,63 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="R17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB17" s="2" t="s">
+      <c r="Y17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AD17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>44943</v>
       </c>
@@ -2105,66 +2090,60 @@
         <v>76</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>77</v>
+      <c r="G18" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="L18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="O18" s="4"/>
       <c r="P18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S18" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="T18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="V18" s="2"/>
       <c r="W18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z18" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>44944</v>
       </c>
@@ -2176,65 +2155,61 @@
         <v>76</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>77</v>
+      <c r="G19" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="L19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="2"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="S19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="V19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>44945</v>
       </c>
@@ -2247,69 +2222,65 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="I20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T20" s="2"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="U20" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>44946</v>
       </c>
@@ -2321,71 +2292,67 @@
         <v>76</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="M21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U21" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="V21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>44947</v>
       </c>
@@ -2396,61 +2363,59 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2" t="s">
+      <c r="X22" s="4"/>
+      <c r="Z22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z22" s="4"/>
-      <c r="AB22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB22" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>44948</v>
       </c>
@@ -2460,57 +2425,53 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="4"/>
       <c r="R23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S23" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="T23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U23" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>44949</v>
       </c>
@@ -2522,69 +2483,67 @@
         <v>76</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="4" t="s">
+      <c r="G24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="M24" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="O24" s="4"/>
       <c r="P24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="R24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="S24" s="2"/>
       <c r="T24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U24" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="V24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="AC24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>44950</v>
       </c>
@@ -2596,63 +2555,59 @@
         <v>76</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>48</v>
+      <c r="G25" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="4"/>
       <c r="K25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="L25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="O25" s="4"/>
       <c r="P25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="4"/>
-      <c r="R25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="V25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="W25" s="2"/>
+      <c r="X25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="AC25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE25" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>44951</v>
       </c>
@@ -2665,70 +2620,64 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="X26" s="4"/>
+      <c r="Y26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>44952</v>
       </c>
@@ -2740,64 +2689,60 @@
         <v>76</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="4"/>
       <c r="K27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="P27" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U27" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="V27" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD27" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="X27" s="4"/>
+      <c r="Z27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>44953</v>
       </c>
@@ -2809,65 +2754,63 @@
         <v>76</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>47</v>
+      <c r="G28" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="4"/>
       <c r="K28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="M28" s="2" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="O28" s="4"/>
       <c r="P28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="R28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W28" s="2"/>
-      <c r="X28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>44954</v>
       </c>
@@ -2878,65 +2821,63 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="4"/>
+      <c r="L29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="R29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="S29" s="2"/>
       <c r="T29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U29" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="V29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z29" s="4"/>
-      <c r="AB29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE29" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="X29" s="4"/>
+      <c r="Z29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>44955</v>
       </c>
@@ -2946,54 +2887,52 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>95</v>
+      <c r="G30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="4"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="2"/>
+      <c r="S30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="U30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>44956</v>
       </c>
@@ -3005,59 +2944,55 @@
         <v>76</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="G31" s="4"/>
       <c r="H31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="4"/>
       <c r="K31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="L31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="P31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="W31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z31" s="4"/>
-      <c r="AB31" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>44957</v>
       </c>
@@ -3070,73 +3005,71 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="4" t="s">
+      <c r="L32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE32" s="0" t="n">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC32" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="2"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="2"/>
-      <c r="Y33" s="2"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="2"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="2"/>
+      <c r="W33" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3156,8 +3089,8 @@
   </sheetPr>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3168,106 +3101,106 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="35.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="26.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="35.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G2" s="9" t="n">
         <v>50</v>
@@ -3279,7 +3212,7 @@
         <v>300</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K2" s="7" t="n">
         <v>50</v>
@@ -3291,42 +3224,42 @@
         <v>0</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O2" s="7" t="n">
         <v>50</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="T2" s="7" t="n">
         <v>50</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W2" s="7" t="n">
         <v>100</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0</v>
@@ -3364,8 +3297,8 @@
       <c r="M3" s="7" t="n">
         <v>-50</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>112</v>
+      <c r="N3" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>-50</v>
@@ -3379,8 +3312,8 @@
       <c r="R3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>113</v>
+      <c r="S3" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T3" s="7" t="n">
         <v>0</v>
@@ -3399,23 +3332,23 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>50</v>
@@ -3427,7 +3360,7 @@
         <v>50</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>50</v>
@@ -3439,7 +3372,7 @@
         <v>50</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>50</v>
@@ -3451,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T4" s="9" t="n">
         <v>0</v>
@@ -3463,18 +3396,18 @@
         <v>116</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W4" s="7" t="n">
         <v>50</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0</v>
@@ -3512,8 +3445,8 @@
       <c r="M5" s="7" t="n">
         <v>-50</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>112</v>
+      <c r="N5" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>0</v>
@@ -3527,8 +3460,8 @@
       <c r="R5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>119</v>
+      <c r="S5" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="T5" s="9" t="n">
         <v>-50</v>
@@ -3547,7 +3480,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="n">
@@ -3581,122 +3514,122 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X7" s="7" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="S6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K7" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N7" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R7" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="U7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="V7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="W7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X7" s="7" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>1.25</v>
@@ -3769,8 +3702,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>124</v>
+      <c r="A9" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>1.5</v>
@@ -3843,7 +3776,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="7" t="n">
@@ -3917,8 +3850,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>125</v>
+      <c r="A11" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>0.75</v>
@@ -3991,7 +3924,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="7" t="n">
@@ -4066,12 +3999,12 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -4079,32 +4012,32 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -4144,19 +4077,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,7 +4098,7 @@
         <v>#REF!</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E2" s="0"/>
       <c r="F2" s="2" t="n">
@@ -4177,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -4190,7 +4123,7 @@
       </c>
       <c r="E3" s="0"/>
       <c r="N3" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>50</v>
@@ -4203,7 +4136,7 @@
       </c>
       <c r="E4" s="0"/>
       <c r="N4" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>50</v>
@@ -4215,13 +4148,13 @@
         <v>#REF!</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>-50</v>
@@ -4233,11 +4166,11 @@
         <v>#REF!</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E6" s="0"/>
       <c r="N6" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>-100</v>
@@ -4249,7 +4182,7 @@
         <v>#REF!</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,7 +4191,7 @@
         <v>#REF!</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E8" s="0"/>
     </row>
@@ -4268,10 +4201,10 @@
         <v>#REF!</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,10 +4225,10 @@
         <v>#REF!</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4316,10 +4249,10 @@
         <v>#REF!</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,10 +4279,10 @@
         <v>#REF!</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,10 +4297,10 @@
         <v>#REF!</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,7 +4309,7 @@
         <v>#REF!</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,10 +4318,10 @@
         <v>#REF!</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4403,7 +4336,7 @@
         <v>#REF!</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,30 +4351,30 @@
         <v>#REF!</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4487,57 +4420,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="L1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -4566,16 +4499,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>-50</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>-50</v>
@@ -4604,16 +4537,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -4642,16 +4575,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>-50</v>
@@ -4680,16 +4613,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>-50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>-50</v>
@@ -4718,7 +4651,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>50</v>
@@ -4756,7 +4689,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>50</v>
@@ -4793,55 +4726,55 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="18" t="n">
+      <c r="A9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="19" t="n">
         <v>300</v>
       </c>
-      <c r="C9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18" t="n">
+      <c r="C9" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="19" t="n">
         <v>-50</v>
       </c>
-      <c r="F9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="18" t="n">
+      <c r="F9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="19" t="n">
         <v>1.25</v>
       </c>
-      <c r="I9" s="18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J9" s="18" t="n">
+      <c r="I9" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="K9" s="18" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L9" s="18" t="n">
+      <c r="K9" s="19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L9" s="19" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>0</v>
@@ -4868,12 +4801,12 @@
         <v>1</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>50</v>
@@ -4905,57 +4838,57 @@
       <c r="K11" s="7" t="n">
         <v>0.75</v>
       </c>
-      <c r="L11" s="18" t="n">
+      <c r="L11" s="19" t="n">
         <v>1</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="19" t="n">
+      <c r="A12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="C12" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19" t="n">
+      <c r="C12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="20" t="n">
         <v>-50</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H12" s="19" t="n">
+      <c r="F12" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="20" t="n">
         <v>1.25</v>
       </c>
-      <c r="I12" s="19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="19" t="n">
+      <c r="I12" s="20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="20" t="n">
         <v>0.5</v>
       </c>
-      <c r="K12" s="19" t="n">
+      <c r="K12" s="20" t="n">
         <v>0.75</v>
       </c>
       <c r="L12" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="9" t="n">
         <v>0</v>
@@ -4970,7 +4903,7 @@
         <v>-50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>1.5</v>
@@ -4991,27 +4924,27 @@
         <v>1</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>1.5</v>
@@ -5032,12 +4965,12 @@
         <v>1</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>50</v>
@@ -5052,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>1.5</v>
@@ -5073,27 +5006,27 @@
         <v>1</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>-50</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>-50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>1.5</v>
@@ -5114,12 +5047,12 @@
         <v>1</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -5134,7 +5067,7 @@
         <v>-50</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="n">
         <v>1.5</v>
@@ -5155,65 +5088,65 @@
         <v>1</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="18" t="n">
+      <c r="A18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="19" t="n">
         <v>1.25</v>
       </c>
-      <c r="I18" s="18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J18" s="18" t="n">
+      <c r="I18" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="K18" s="18" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L18" s="18" t="n">
+      <c r="K18" s="19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L18" s="19" t="n">
         <v>1</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="n">
         <v>1</v>
@@ -5237,12 +5170,12 @@
         <v>1</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>50</v>
@@ -5280,16 +5213,16 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>-50</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>-50</v>
@@ -5318,16 +5251,16 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
@@ -5356,7 +5289,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>100</v>
@@ -5394,16 +5327,16 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
@@ -5438,7 +5371,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5472,36 +5405,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>50</v>
@@ -5512,16 +5445,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>50</v>
@@ -5532,16 +5465,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>50</v>
@@ -5552,16 +5485,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>50</v>
@@ -5572,16 +5505,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -5640,7 +5573,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -5768,58 +5701,58 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W2" s="2" t="n">
         <v>1</v>
@@ -5828,13 +5761,13 @@
         <v>1</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="2" t="n">
         <v>1</v>
@@ -5845,7 +5778,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
@@ -5854,31 +5787,31 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W3" s="2" t="n">
         <v>2</v>
@@ -5887,7 +5820,7 @@
         <v>2</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="0" t="n">
         <v>2</v>
@@ -5904,28 +5837,28 @@
         <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W4" s="2" t="n">
         <v>3</v>
@@ -5934,7 +5867,7 @@
         <v>3</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z4" s="0" t="n">
         <v>3</v>
@@ -5948,31 +5881,31 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="2" t="n">
         <v>4</v>
@@ -5983,13 +5916,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>72</v>
@@ -5998,7 +5931,7 @@
         <v>72</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>72</v>
@@ -6013,61 +5946,61 @@
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/months/jan23/jan23.xlsx
+++ b/months/jan23/jan23.xlsx
@@ -351,7 +351,7 @@
     <t xml:space="preserve">40*</t>
   </si>
   <si>
-    <t xml:space="preserve">+: {CDIF 50 P 25}, -: {CDIF 0 P -25}</t>
+    <t xml:space="preserve">{"+": {"CDIF": 50, "P": 25}, "-": {"CDIF": 0, "P": -25}}</t>
   </si>
   <si>
     <t xml:space="preserve">{&lt;.23: 1*, &gt;.23: 0}</t>
@@ -375,7 +375,7 @@
     <t xml:space="preserve">{&lt;.22: 2*, &lt;2.3: 1*, &gt;2.3: 0*}</t>
   </si>
   <si>
-    <t xml:space="preserve">+: {CDIF 100 P 50}, -: {CDIFP 0}</t>
+    <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
   </si>
   <si>
     <t xml:space="preserve">{&lt;.23: 1*, &gt;.23: 0, &gt;.0: -1*}</t>
@@ -834,7 +834,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
+          <fgColor rgb="FF3D3D3D"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
@@ -918,7 +918,7 @@
       <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.43"/>
@@ -946,7 +946,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.43"/>
   </cols>
   <sheetData>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>44927</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>44928</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>44929</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>44930</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>44931</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>44932</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>44933</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>44934</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>44935</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>44936</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>44937</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>44938</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>44939</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>44940</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>44941</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>44942</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>44943</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>44944</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>44945</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>44946</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>44947</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>44948</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>44949</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>44950</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>44951</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>44952</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>44953</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>44954</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>44955</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>44956</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>44957</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H33" s="2"/>
       <c r="J33" s="4"/>
       <c r="K33" s="2"/>
@@ -3089,24 +3089,24 @@
   </sheetPr>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="35.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="26.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="35.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="49.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="47.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,7 +3183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>101</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>112</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>113</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>117</v>
       </c>
@@ -4067,7 +4067,7 @@
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.14"/>
@@ -4100,7 +4100,6 @@
       <c r="D2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="0"/>
       <c r="F2" s="2" t="n">
         <f aca="false">D2*C2</f>
         <v>0</v>
@@ -4121,7 +4120,6 @@
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E3" s="0"/>
       <c r="N3" s="0" t="s">
         <v>132</v>
       </c>
@@ -4134,7 +4132,6 @@
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="0"/>
       <c r="N4" s="0" t="s">
         <v>133</v>
       </c>
@@ -4168,7 +4165,6 @@
       <c r="D6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="0"/>
       <c r="N6" s="0" t="s">
         <v>136</v>
       </c>
@@ -4181,7 +4177,7 @@
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4193,7 +4189,6 @@
       <c r="D8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="e">
@@ -4203,7 +4198,7 @@
       <c r="D9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4407,7 +4402,7 @@
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.15"/>
@@ -4415,7 +4410,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="7.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5396,7 +5391,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7"/>
@@ -5545,7 +5540,7 @@
       <selection pane="topLeft" activeCell="R22" activeCellId="0" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.43"/>
@@ -5565,7 +5560,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="2" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="2" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="2" width="9.14"/>

--- a/months/jan23/jan23.xlsx
+++ b/months/jan23/jan23.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="184">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -339,148 +339,341 @@
     <t xml:space="preserve">30*</t>
   </si>
   <si>
-    <t xml:space="preserve">{&lt;.22: 3*, &lt;.23: 2*, &gt;.23: 0}</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="utkal"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;.22": "3*", "&lt;.23": "2*", "&gt;.23": 0}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="utkal"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1": 50, "2": 0}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">50*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": {"CDIF": 50, "P": 25}, "-": {"CDIF": 0, "P": -25}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.23": "1*", "&gt;.23": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.23": "3*", "&gt;.23": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dutyFalse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.22": "2*", "&lt;.23": "1*", "&gt;.23": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"1": 50, "2": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.23": "1*", "&gt;.23": 0, "&gt;.0": "-1*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="utkal"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="utkal"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: 1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="utkal"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="utkal"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: 1.25, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="utkal"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="utkal"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: 1.5}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">duty_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long_box100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long_box50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fine50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fine100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРЕДЕЛАЙ ЧЕРЕЗ ДРУГОЙ ЕХСЕЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">итог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;22: 3*, &lt;23: 2*, &gt;23: 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&lt;22: 2*, &lt;23: 1*, &gt;23: 0*}</t>
   </si>
   <si>
     <t xml:space="preserve">{1: 50, 2: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": {"CDIF": 50, "P": 25}, "-": {"CDIF": 0, "P": -25}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;.23: 1*, &gt;.23: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;.23: 3*, &gt;.23: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dutyFalse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;.22: 2*, &lt;2.3: 1*, &gt;2.3: 0*}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;.23: 1*, &gt;.23: 0, &gt;.0: -1*}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1: 1, 2: 1.25, 3: 1.5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEAK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEAK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KGD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long_box100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long_box50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fine50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fine100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРЕДЕЛАЙ ЧЕРЕЗ ДРУГОЙ ЕХСЕЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">итог</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;22: 3*, &lt;23: 2*, &gt;23: 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{&lt;22: 2*, &lt;23: 1*, &gt;23: 0*}</t>
   </si>
   <si>
     <t xml:space="preserve">{&gt;22: 3*, 22-23: 2*, &gt;23: 0}</t>
@@ -587,7 +780,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -609,6 +802,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="utkal"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -766,7 +966,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -790,7 +990,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -798,7 +998,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -914,11 +1114,11 @@
   </sheetPr>
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="S17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.43"/>
@@ -946,7 +1146,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.43"/>
   </cols>
   <sheetData>
@@ -3089,24 +3289,25 @@
   </sheetPr>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U16" activeCellId="0" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="49.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="24.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="33.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="24.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="47.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="33.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,7 +3384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>101</v>
       </c>
@@ -3342,7 +3543,7 @@
         <v>114</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>105</v>
@@ -3372,13 +3573,13 @@
         <v>50</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>50</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="7" t="n">
         <v>0</v>
@@ -3387,13 +3588,13 @@
         <v>111</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>109</v>
@@ -3407,7 +3608,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0</v>
@@ -3479,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -3514,25 +3715,25 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S6" s="7" t="n">
         <v>1</v>
@@ -3555,7 +3756,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0.75</v>
@@ -3629,7 +3830,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>1.25</v>
@@ -3703,7 +3904,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>1.5</v>
@@ -3851,7 +4052,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>0.75</v>
@@ -3999,12 +4200,12 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -4012,32 +4213,32 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -4067,7 +4268,7 @@
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.14"/>
@@ -4077,19 +4278,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4098,7 +4299,7 @@
         <v>#REF!</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="n">
         <f aca="false">D2*C2</f>
@@ -4109,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -4121,7 +4322,7 @@
         <v>#REF!</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>50</v>
@@ -4133,7 +4334,7 @@
         <v>#REF!</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>50</v>
@@ -4145,13 +4346,13 @@
         <v>#REF!</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>-50</v>
@@ -4163,10 +4364,10 @@
         <v>#REF!</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>-100</v>
@@ -4178,7 +4379,7 @@
         <v>#REF!</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,7 +4388,7 @@
         <v>#REF!</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4196,10 +4397,10 @@
         <v>#REF!</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,10 +4421,10 @@
         <v>#REF!</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,10 +4445,10 @@
         <v>#REF!</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,10 +4475,10 @@
         <v>#REF!</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,10 +4493,10 @@
         <v>#REF!</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,7 +4505,7 @@
         <v>#REF!</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,10 +4514,10 @@
         <v>#REF!</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4532,7 @@
         <v>#REF!</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,30 +4547,30 @@
         <v>#REF!</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
       <c r="D31" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4402,7 +4603,7 @@
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.15"/>
@@ -4410,7 +4611,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="7.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4427,31 +4628,31 @@
         <v>113</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>76</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>64</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,13 +4698,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>-50</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>-50</v>
@@ -4535,13 +4736,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -4611,13 +4812,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>-50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>-50</v>
@@ -4796,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,7 +5058,7 @@
         <v>-50</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G12" s="20" t="n">
         <v>1.5</v>
@@ -4878,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4898,7 +5099,7 @@
         <v>-50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>1.5</v>
@@ -4919,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,19 +5128,19 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>1.5</v>
@@ -4960,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>1.5</v>
@@ -5001,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,19 +5210,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>-50</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>-50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>1.5</v>
@@ -5042,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,7 +5263,7 @@
         <v>-50</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="n">
         <v>1.5</v>
@@ -5083,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G18" s="19" t="n">
         <v>1.5</v>
@@ -5124,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5132,16 +5333,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F19" s="7" t="n">
         <v>1</v>
@@ -5165,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,13 +5412,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>-50</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>-50</v>
@@ -5366,7 +5567,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5391,7 +5592,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7"/>
@@ -5400,13 +5601,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>112</v>
@@ -5415,21 +5616,21 @@
         <v>113</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>50</v>
@@ -5440,16 +5641,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>50</v>
@@ -5460,16 +5661,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>50</v>
@@ -5480,16 +5681,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>50</v>
@@ -5500,16 +5701,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -5540,7 +5741,7 @@
       <selection pane="topLeft" activeCell="R22" activeCellId="0" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.43"/>
@@ -5560,7 +5761,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="2" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="2" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="2" width="9.14"/>
@@ -5568,7 +5769,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -5696,16 +5897,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -5714,7 +5915,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>34</v>
@@ -5744,7 +5945,7 @@
         <v>34</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>34</v>
@@ -5756,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>1</v>
@@ -5773,7 +5974,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
@@ -5782,10 +5983,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>2</v>
@@ -5832,10 +6033,10 @@
         <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>42</v>
@@ -5876,10 +6077,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>95</v>
@@ -5911,10 +6112,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>39</v>

--- a/months/jan23/jan23.xlsx
+++ b/months/jan23/jan23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="187">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">22,00</t>
   </si>
   <si>
-    <t xml:space="preserve">C+</t>
+    <t xml:space="preserve">+C</t>
   </si>
   <si>
     <t xml:space="preserve">0,50</t>
@@ -162,6 +162,9 @@
     <t xml:space="preserve">21,00</t>
   </si>
   <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
     <t xml:space="preserve">21,45</t>
   </si>
   <si>
@@ -171,13 +174,13 @@
     <t xml:space="preserve">21,10</t>
   </si>
   <si>
-    <t xml:space="preserve">P+</t>
+    <t xml:space="preserve">+P</t>
   </si>
   <si>
     <t xml:space="preserve">23,00</t>
   </si>
   <si>
-    <t xml:space="preserve">C-</t>
+    <t xml:space="preserve">-C</t>
   </si>
   <si>
     <t xml:space="preserve">00,55</t>
@@ -186,6 +189,9 @@
     <t xml:space="preserve">22,30</t>
   </si>
   <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
     <t xml:space="preserve">22,06</t>
   </si>
   <si>
@@ -201,13 +207,13 @@
     <t xml:space="preserve">22,45</t>
   </si>
   <si>
-    <t xml:space="preserve">P-</t>
+    <t xml:space="preserve">-P</t>
   </si>
   <si>
     <t xml:space="preserve">3,00</t>
   </si>
   <si>
-    <t xml:space="preserve">D+</t>
+    <t xml:space="preserve">+D</t>
   </si>
   <si>
     <t xml:space="preserve">23,55</t>
@@ -243,7 +249,7 @@
     <t xml:space="preserve">22,40</t>
   </si>
   <si>
-    <t xml:space="preserve">I-</t>
+    <t xml:space="preserve">-I</t>
   </si>
   <si>
     <t xml:space="preserve">0,00</t>
@@ -264,7 +270,10 @@
     <t xml:space="preserve">22,37</t>
   </si>
   <si>
-    <t xml:space="preserve">F+</t>
+    <t xml:space="preserve">L,E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+F</t>
   </si>
   <si>
     <t xml:space="preserve">0,40</t>
@@ -273,7 +282,7 @@
     <t xml:space="preserve">22,23</t>
   </si>
   <si>
-    <t xml:space="preserve">F-</t>
+    <t xml:space="preserve">-F</t>
   </si>
   <si>
     <t xml:space="preserve">0,01</t>
@@ -282,7 +291,7 @@
     <t xml:space="preserve">00,40</t>
   </si>
   <si>
-    <t xml:space="preserve">D-</t>
+    <t xml:space="preserve">-D</t>
   </si>
   <si>
     <t xml:space="preserve">00,20</t>
@@ -1034,7 +1043,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
+          <fgColor rgb="FF000000"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
@@ -1114,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X34" activeCellId="0" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1392,10 +1401,10 @@
         <v>29</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>34</v>
@@ -1428,13 +1437,13 @@
         <v>34</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>44930</v>
       </c>
@@ -1461,7 +1470,7 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
@@ -1475,13 +1484,13 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>34</v>
@@ -1490,13 +1499,13 @@
         <v>42</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>34</v>
@@ -1505,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>44931</v>
       </c>
@@ -1519,16 +1528,16 @@
         <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>34</v>
@@ -1559,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA6" s="0" t="n">
         <v>1</v>
@@ -1571,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>44932</v>
       </c>
@@ -1585,13 +1594,13 @@
         <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>35</v>
@@ -1618,24 +1627,24 @@
         <v>34</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y7" s="5" t="s">
         <v>34</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>44933</v>
       </c>
@@ -1662,7 +1671,7 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
@@ -1680,11 +1689,11 @@
         <v>34</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>34</v>
@@ -1693,11 +1702,11 @@
         <v>42</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA8" s="0" t="n">
         <v>1</v>
@@ -1706,7 +1715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>44934</v>
       </c>
@@ -1720,14 +1729,14 @@
         <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>34</v>
@@ -1745,11 +1754,11 @@
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2" t="s">
@@ -1760,10 +1769,10 @@
         <v>34</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>44935</v>
       </c>
@@ -1777,14 +1786,14 @@
         <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1817,10 +1826,10 @@
         <v>34</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>44936</v>
       </c>
@@ -1829,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2"/>
       <c r="G11" s="4"/>
@@ -1841,7 +1850,7 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>34</v>
@@ -1867,7 +1876,7 @@
         <v>34</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2" t="s">
@@ -1878,7 +1887,7 @@
         <v>34</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA11" s="0" t="n">
         <v>1</v>
@@ -1887,7 +1896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>44937</v>
       </c>
@@ -1896,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1907,16 +1916,16 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>34</v>
@@ -1938,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>34</v>
@@ -1951,13 +1960,13 @@
         <v>34</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>44938</v>
       </c>
@@ -1966,23 +1975,23 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2"/>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
@@ -1998,13 +2007,13 @@
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>34</v>
@@ -2017,13 +2026,13 @@
         <v>34</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AA13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>44939</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -2049,10 +2058,10 @@
         <v>29</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2066,13 +2075,13 @@
         <v>34</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>34</v>
@@ -2082,7 +2091,7 @@
       </c>
       <c r="X14" s="4"/>
       <c r="Z14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB14" s="0" t="s">
         <v>34</v>
@@ -2091,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>44940</v>
       </c>
@@ -2100,23 +2109,23 @@
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2"/>
       <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>34</v>
@@ -2138,7 +2147,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -2147,13 +2156,13 @@
         <v>34</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB15" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>44941</v>
       </c>
@@ -2165,14 +2174,14 @@
       <c r="D16" s="2"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
@@ -2203,13 +2212,13 @@
         <v>34</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AB16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>44942</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -2256,7 +2265,7 @@
         <v>34</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>34</v>
@@ -2269,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AB17" s="5" t="s">
         <v>34</v>
@@ -2278,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>44943</v>
       </c>
@@ -2287,20 +2296,20 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="G18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>33</v>
@@ -2321,29 +2330,29 @@
         <v>34</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>44944</v>
       </c>
@@ -2352,23 +2361,23 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="G19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>34</v>
@@ -2382,13 +2391,13 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>34</v>
@@ -2397,19 +2406,19 @@
         <v>29</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB19" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>44945</v>
       </c>
@@ -2418,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -2431,14 +2440,14 @@
         <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2452,26 +2461,26 @@
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>34</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB20" s="5" t="s">
         <v>34</v>
@@ -2480,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>44946</v>
       </c>
@@ -2489,12 +2498,12 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="G21" s="4"/>
       <c r="H21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>29</v>
@@ -2525,13 +2534,13 @@
         <v>34</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>34</v>
@@ -2540,10 +2549,10 @@
         <v>29</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA21" s="0" t="n">
         <v>1</v>
@@ -2552,7 +2561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>44947</v>
       </c>
@@ -2570,16 +2579,16 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>34</v>
@@ -2595,7 +2604,7 @@
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>34</v>
@@ -2615,7 +2624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>44948</v>
       </c>
@@ -2627,14 +2636,14 @@
       <c r="D23" s="2"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
@@ -2651,7 +2660,7 @@
         <v>34</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>34</v>
@@ -2668,10 +2677,10 @@
         <v>34</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>44949</v>
       </c>
@@ -2680,21 +2689,21 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2"/>
       <c r="G24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>34</v>
@@ -2720,7 +2729,7 @@
         <v>34</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>34</v>
@@ -2731,7 +2740,7 @@
         <v>34</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA24" s="0" t="n">
         <v>1</v>
@@ -2743,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>44950</v>
       </c>
@@ -2752,21 +2761,21 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="G25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>34</v>
@@ -2782,20 +2791,20 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA25" s="0" t="n">
         <v>1</v>
@@ -2807,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>44951</v>
       </c>
@@ -2816,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -2829,14 +2838,14 @@
         <v>29</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>34</v>
@@ -2858,7 +2867,7 @@
         <v>34</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>34</v>
@@ -2871,13 +2880,13 @@
         <v>34</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AA26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>44952</v>
       </c>
@@ -2886,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="G27" s="4"/>
@@ -2898,7 +2907,7 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>34</v>
@@ -2920,13 +2929,13 @@
         <v>34</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>34</v>
@@ -2936,13 +2945,13 @@
       </c>
       <c r="X27" s="4"/>
       <c r="Z27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB27" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>44953</v>
       </c>
@@ -2951,21 +2960,21 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="G28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>34</v>
@@ -2987,7 +2996,7 @@
         <v>34</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>34</v>
@@ -2998,7 +3007,7 @@
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>34</v>
@@ -3010,7 +3019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>44954</v>
       </c>
@@ -3030,13 +3039,13 @@
         <v>29</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>34</v>
@@ -3064,11 +3073,11 @@
         <v>34</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X29" s="4"/>
       <c r="Z29" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AB29" s="5" t="s">
         <v>34</v>
@@ -3077,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>44955</v>
       </c>
@@ -3091,13 +3100,13 @@
         <v>29</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>33</v>
@@ -3114,13 +3123,13 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -3129,10 +3138,10 @@
         <v>34</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>44956</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2"/>
       <c r="G31" s="4"/>
@@ -3153,7 +3162,7 @@
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>34</v>
@@ -3177,7 +3186,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>34</v>
@@ -3186,10 +3195,10 @@
         <v>31</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
@@ -3214,13 +3223,13 @@
         <v>29</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>33</v>
@@ -3243,7 +3252,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>34</v>
@@ -3256,7 +3265,7 @@
         <v>34</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AB32" s="5" t="s">
         <v>34</v>
@@ -3289,8 +3298,8 @@
   </sheetPr>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U16" activeCellId="0" sqref="U16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3312,7 +3321,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>6</v>
@@ -3386,22 +3395,22 @@
     </row>
     <row r="2" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G2" s="9" t="n">
         <v>50</v>
@@ -3413,7 +3422,7 @@
         <v>300</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K2" s="7" t="n">
         <v>50</v>
@@ -3425,42 +3434,42 @@
         <v>0</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O2" s="7" t="n">
         <v>50</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="T2" s="7" t="n">
         <v>50</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="W2" s="7" t="n">
         <v>100</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0</v>
@@ -3534,22 +3543,22 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>50</v>
@@ -3561,7 +3570,7 @@
         <v>50</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>50</v>
@@ -3573,42 +3582,42 @@
         <v>50</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>50</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="T4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="W4" s="7" t="n">
         <v>50</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0</v>
@@ -3715,25 +3724,25 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S6" s="7" t="n">
         <v>1</v>
@@ -3756,7 +3765,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0.75</v>
@@ -3830,7 +3839,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>1.25</v>
@@ -3904,7 +3913,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>1.5</v>
@@ -3978,7 +3987,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>0.5</v>
@@ -4052,7 +4061,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>0.75</v>
@@ -4126,7 +4135,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>1</v>
@@ -4200,12 +4209,12 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -4213,32 +4222,32 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -4278,19 +4287,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,7 +4308,7 @@
         <v>#REF!</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2" t="n">
         <f aca="false">D2*C2</f>
@@ -4310,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -4322,7 +4331,7 @@
         <v>#REF!</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>50</v>
@@ -4334,7 +4343,7 @@
         <v>#REF!</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>50</v>
@@ -4346,13 +4355,13 @@
         <v>#REF!</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>-50</v>
@@ -4364,10 +4373,10 @@
         <v>#REF!</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>-100</v>
@@ -4379,7 +4388,7 @@
         <v>#REF!</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,7 +4397,7 @@
         <v>#REF!</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,10 +4406,10 @@
         <v>#REF!</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4421,10 +4430,10 @@
         <v>#REF!</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,10 +4454,10 @@
         <v>#REF!</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4475,10 +4484,10 @@
         <v>#REF!</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,10 +4502,10 @@
         <v>#REF!</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,7 +4514,7 @@
         <v>#REF!</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,10 +4523,10 @@
         <v>#REF!</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,7 +4541,7 @@
         <v>#REF!</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4547,30 +4556,30 @@
         <v>#REF!</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
       <c r="D31" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4616,43 +4625,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,13 +4669,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -4698,13 +4707,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>-50</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>-50</v>
@@ -4736,13 +4745,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -4774,13 +4783,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>-50</v>
@@ -4812,13 +4821,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>-50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>-50</v>
@@ -4964,13 +4973,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>0</v>
@@ -4997,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,7 +5067,7 @@
         <v>-50</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G12" s="20" t="n">
         <v>1.5</v>
@@ -5079,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,7 +5108,7 @@
         <v>-50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>1.5</v>
@@ -5120,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,19 +5137,19 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>1.5</v>
@@ -5161,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5181,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>1.5</v>
@@ -5202,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5210,19 +5219,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>-50</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>-50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>1.5</v>
@@ -5243,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5263,7 +5272,7 @@
         <v>-50</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="n">
         <v>1.5</v>
@@ -5284,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5292,19 +5301,19 @@
         <v>22</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C18" s="19" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E18" s="19" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G18" s="19" t="n">
         <v>1.5</v>
@@ -5325,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,16 +5342,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F19" s="7" t="n">
         <v>1</v>
@@ -5366,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,13 +5421,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>-50</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>-50</v>
@@ -5450,13 +5459,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
@@ -5526,13 +5535,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
@@ -5567,7 +5576,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5601,36 +5610,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>50</v>
@@ -5641,16 +5650,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>50</v>
@@ -5661,16 +5670,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>50</v>
@@ -5681,16 +5690,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>50</v>
@@ -5701,16 +5710,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -5769,7 +5778,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -5888,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -5897,16 +5906,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -5915,7 +5924,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>34</v>
@@ -5945,7 +5954,7 @@
         <v>34</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>34</v>
@@ -5957,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>1</v>
@@ -5974,7 +5983,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
@@ -5983,10 +5992,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>2</v>
@@ -6030,13 +6039,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>42</v>
@@ -6077,31 +6086,31 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB5" s="2" t="n">
         <v>4</v>
@@ -6112,28 +6121,28 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,16 +6151,16 @@
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
